--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cgn-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cgn-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>F11r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.04683366666666666</v>
+        <v>0.0726045</v>
       </c>
       <c r="H2">
-        <v>0.140501</v>
+        <v>0.145209</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6461094194719614</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5489714983497851</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.0030115</v>
+        <v>33.8141135</v>
       </c>
       <c r="N2">
-        <v>84.006023</v>
+        <v>67.62822700000001</v>
       </c>
       <c r="O2">
-        <v>0.5082121969030551</v>
+        <v>0.8395820055673167</v>
       </c>
       <c r="P2">
-        <v>0.4088471200600853</v>
+        <v>0.7840733132753086</v>
       </c>
       <c r="Q2">
-        <v>1.967155039587166</v>
+        <v>2.45505680361075</v>
       </c>
       <c r="R2">
-        <v>11.802930237523</v>
+        <v>9.820227214443001</v>
       </c>
       <c r="S2">
-        <v>0.5082121969030551</v>
+        <v>0.5424618422162041</v>
       </c>
       <c r="T2">
-        <v>0.4088471200600853</v>
+        <v>0.4304339016048266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -602,19 +602,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.04683366666666666</v>
+        <v>0.0726045</v>
       </c>
       <c r="H3">
-        <v>0.140501</v>
+        <v>0.145209</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6461094194719614</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5489714983497851</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.259708</v>
       </c>
       <c r="O3">
-        <v>0.001047438969412139</v>
+        <v>0.002149459115662623</v>
       </c>
       <c r="P3">
-        <v>0.001263967321207012</v>
+        <v>0.003011022483911989</v>
       </c>
       <c r="Q3">
-        <v>0.004054359300888888</v>
+        <v>0.006285323162</v>
       </c>
       <c r="R3">
-        <v>0.03648923370799999</v>
+        <v>0.037711938972</v>
       </c>
       <c r="S3">
-        <v>0.001047438969412139</v>
+        <v>0.001388785781399493</v>
       </c>
       <c r="T3">
-        <v>0.001263967321207012</v>
+        <v>0.001652965524558056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.04683366666666666</v>
+        <v>0.0726045</v>
       </c>
       <c r="H4">
-        <v>0.140501</v>
+        <v>0.145209</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6461094194719614</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5489714983497851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.171693666666666</v>
+        <v>2.533859666666667</v>
       </c>
       <c r="N4">
-        <v>15.515081</v>
+        <v>7.601579</v>
       </c>
       <c r="O4">
-        <v>0.06257450849795097</v>
+        <v>0.06291405453424448</v>
       </c>
       <c r="P4">
-        <v>0.07551001651808879</v>
+        <v>0.088131768302221</v>
       </c>
       <c r="Q4">
-        <v>0.2422093772867777</v>
+        <v>0.1839696141685</v>
       </c>
       <c r="R4">
-        <v>2.179884395580999</v>
+        <v>1.103817685011</v>
       </c>
       <c r="S4">
-        <v>0.06257450849795097</v>
+        <v>0.04064936325174803</v>
       </c>
       <c r="T4">
-        <v>0.07551001651808879</v>
+        <v>0.04838182889708636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,19 +726,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.04683366666666666</v>
+        <v>0.0726045</v>
       </c>
       <c r="H5">
-        <v>0.140501</v>
+        <v>0.145209</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6461094194719614</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5489714983497851</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4721975</v>
+        <v>0.7582734999999999</v>
       </c>
       <c r="N5">
-        <v>0.944395</v>
+        <v>1.516547</v>
       </c>
       <c r="O5">
-        <v>0.005713317218864898</v>
+        <v>0.01882742795840407</v>
       </c>
       <c r="P5">
-        <v>0.004596255865476982</v>
+        <v>0.0175826586586061</v>
       </c>
       <c r="Q5">
-        <v>0.02211474031583333</v>
+        <v>0.05505406833074999</v>
       </c>
       <c r="R5">
-        <v>0.132688441895</v>
+        <v>0.220216273323</v>
       </c>
       <c r="S5">
-        <v>0.005713317218864898</v>
+        <v>0.01216457854835463</v>
       </c>
       <c r="T5">
-        <v>0.004596255865476982</v>
+        <v>0.009652378468787816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,19 +788,19 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.04683366666666666</v>
+        <v>0.0726045</v>
       </c>
       <c r="H6">
-        <v>0.140501</v>
+        <v>0.145209</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6461094194719614</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5489714983497851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.43944966666666</v>
+        <v>0.9893793333333333</v>
       </c>
       <c r="N6">
-        <v>79.318349</v>
+        <v>2.968138</v>
       </c>
       <c r="O6">
-        <v>0.3199020813068228</v>
+        <v>0.02456563248203607</v>
       </c>
       <c r="P6">
-        <v>0.3860327795373761</v>
+        <v>0.03441222547381506</v>
       </c>
       <c r="Q6">
-        <v>1.238256372538778</v>
+        <v>0.071833391807</v>
       </c>
       <c r="R6">
-        <v>11.144307352849</v>
+        <v>0.4310003508419999</v>
       </c>
       <c r="S6">
-        <v>0.3199020813068228</v>
+        <v>0.01587208654192989</v>
       </c>
       <c r="T6">
-        <v>0.3860327795373761</v>
+        <v>0.0188913309799109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.04683366666666666</v>
+        <v>0.0726045</v>
       </c>
       <c r="H7">
-        <v>0.140501</v>
+        <v>0.145209</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.6461094194719614</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.5489714983497851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.475648666666666</v>
+        <v>2.092743</v>
       </c>
       <c r="N7">
-        <v>25.426946</v>
+        <v>6.278229</v>
       </c>
       <c r="O7">
-        <v>0.102550457103894</v>
+        <v>0.05196142034233613</v>
       </c>
       <c r="P7">
-        <v>0.1237498606977658</v>
+        <v>0.0727890118061372</v>
       </c>
       <c r="Q7">
-        <v>0.3969457044384444</v>
+        <v>0.1519425591435</v>
       </c>
       <c r="R7">
-        <v>3.572511339946</v>
+        <v>0.911655354861</v>
       </c>
       <c r="S7">
-        <v>0.102550457103894</v>
+        <v>0.03357276313232536</v>
       </c>
       <c r="T7">
-        <v>0.1237498606977658</v>
+        <v>0.03995909287461533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.03976733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.119302</v>
+      </c>
+      <c r="I8">
+        <v>0.3538905805280386</v>
+      </c>
+      <c r="J8">
+        <v>0.4510285016502149</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>33.8141135</v>
+      </c>
+      <c r="N8">
+        <v>67.62822700000001</v>
+      </c>
+      <c r="O8">
+        <v>0.8395820055673167</v>
+      </c>
+      <c r="P8">
+        <v>0.7840733132753086</v>
+      </c>
+      <c r="Q8">
+        <v>1.344697122925667</v>
+      </c>
+      <c r="R8">
+        <v>8.068182737554</v>
+      </c>
+      <c r="S8">
+        <v>0.2971201633511126</v>
+      </c>
+      <c r="T8">
+        <v>0.353639411670482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.03976733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.119302</v>
+      </c>
+      <c r="I9">
+        <v>0.3538905805280386</v>
+      </c>
+      <c r="J9">
+        <v>0.4510285016502149</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.08656933333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.259708</v>
+      </c>
+      <c r="O9">
+        <v>0.002149459115662623</v>
+      </c>
+      <c r="P9">
+        <v>0.003011022483911989</v>
+      </c>
+      <c r="Q9">
+        <v>0.003442631535111111</v>
+      </c>
+      <c r="R9">
+        <v>0.030983683816</v>
+      </c>
+      <c r="S9">
+        <v>0.0007606733342631299</v>
+      </c>
+      <c r="T9">
+        <v>0.001358056959353933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.03976733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.119302</v>
+      </c>
+      <c r="I10">
+        <v>0.3538905805280386</v>
+      </c>
+      <c r="J10">
+        <v>0.4510285016502149</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.533859666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.601579</v>
+      </c>
+      <c r="O10">
+        <v>0.06291405453424448</v>
+      </c>
+      <c r="P10">
+        <v>0.088131768302221</v>
+      </c>
+      <c r="Q10">
+        <v>0.1007648419842222</v>
+      </c>
+      <c r="R10">
+        <v>0.9068835778579999</v>
+      </c>
+      <c r="S10">
+        <v>0.02226469128249646</v>
+      </c>
+      <c r="T10">
+        <v>0.03974993940513464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.03976733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.119302</v>
+      </c>
+      <c r="I11">
+        <v>0.3538905805280386</v>
+      </c>
+      <c r="J11">
+        <v>0.4510285016502149</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7582734999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.516547</v>
+      </c>
+      <c r="O11">
+        <v>0.01882742795840407</v>
+      </c>
+      <c r="P11">
+        <v>0.0175826586586061</v>
+      </c>
+      <c r="Q11">
+        <v>0.03015451503233333</v>
+      </c>
+      <c r="R11">
+        <v>0.180927090194</v>
+      </c>
+      <c r="S11">
+        <v>0.006662849410049441</v>
+      </c>
+      <c r="T11">
+        <v>0.007930280189818289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03976733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.119302</v>
+      </c>
+      <c r="I12">
+        <v>0.3538905805280386</v>
+      </c>
+      <c r="J12">
+        <v>0.4510285016502149</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9893793333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.968138</v>
+      </c>
+      <c r="O12">
+        <v>0.02456563248203607</v>
+      </c>
+      <c r="P12">
+        <v>0.03441222547381506</v>
+      </c>
+      <c r="Q12">
+        <v>0.03934497774177777</v>
+      </c>
+      <c r="R12">
+        <v>0.3541047996759999</v>
+      </c>
+      <c r="S12">
+        <v>0.008693545940106188</v>
+      </c>
+      <c r="T12">
+        <v>0.01552089449390416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03976733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.119302</v>
+      </c>
+      <c r="I13">
+        <v>0.3538905805280386</v>
+      </c>
+      <c r="J13">
+        <v>0.4510285016502149</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.092743</v>
+      </c>
+      <c r="N13">
+        <v>6.278229</v>
+      </c>
+      <c r="O13">
+        <v>0.05196142034233613</v>
+      </c>
+      <c r="P13">
+        <v>0.0727890118061372</v>
+      </c>
+      <c r="Q13">
+        <v>0.08322280846199999</v>
+      </c>
+      <c r="R13">
+        <v>0.7490052761579999</v>
+      </c>
+      <c r="S13">
+        <v>0.01838865721001076</v>
+      </c>
+      <c r="T13">
+        <v>0.03282991893152187</v>
       </c>
     </row>
   </sheetData>
